--- a/Area_de_Proceso-_PP-PMC/REGRI_V1.1_2015.xlsx
+++ b/Area_de_Proceso-_PP-PMC/REGRI_V1.1_2015.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="123820"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perochena\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PP-PMC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="24000" windowHeight="9720" tabRatio="432"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="24000" windowHeight="9720" tabRatio="432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de Riesgos" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
     <definedName name="Sit_estrategia">Tablas!$G$9:$G$11</definedName>
     <definedName name="Tipo_Proyecto">Tablas!$G$20:$G$25</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2407,7 +2412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2442,7 +2447,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2654,9 +2659,9 @@
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
@@ -3312,7 +3317,7 @@
   <dimension ref="B2:G7125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -10675,8 +10680,8 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="B1:S21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
@@ -11055,6 +11060,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A5:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
